--- a/data/pheno/pheno_latour.xlsx
+++ b/data/pheno/pheno_latour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\predicting_bordeaux_wine_prices\data\pheno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\Projects\predicting_bordeaux_wine_prices\data\pheno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D5734-5008-4C68-A192-67CBC921D4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EFE72E-DBB7-4EE6-95A0-F5021C1DAE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{562983B5-CDBC-4D71-B696-1A8C60F1C9DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{562983B5-CDBC-4D71-B696-1A8C60F1C9DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Historique phéno" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t>fictif</t>
+    <t>deuxieme envoi</t>
   </si>
 </sst>
 </file>
@@ -495,10 +495,10 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3041,7 @@
         <v>40679</v>
       </c>
       <c r="E52" s="7">
-        <v>40744</v>
+        <v>40747</v>
       </c>
       <c r="F52" s="7">
         <v>40805</v>
@@ -3119,7 +3119,7 @@
         <v>41795</v>
       </c>
       <c r="E55" s="7">
-        <v>41857</v>
+        <v>41859</v>
       </c>
       <c r="F55" s="7">
         <v>41913.5</v>
@@ -3145,7 +3145,7 @@
         <v>42158</v>
       </c>
       <c r="E56" s="7">
-        <v>42218</v>
+        <v>42219</v>
       </c>
       <c r="F56" s="7">
         <v>42274.5</v>
@@ -3171,7 +3171,7 @@
         <v>42528</v>
       </c>
       <c r="E57" s="7">
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F57" s="7">
         <v>42648.5</v>
@@ -3197,7 +3197,7 @@
         <v>42883</v>
       </c>
       <c r="E58" s="7">
-        <v>42944</v>
+        <v>42945</v>
       </c>
       <c r="F58" s="7">
         <v>43000.5</v>
@@ -3223,7 +3223,7 @@
         <v>43252</v>
       </c>
       <c r="E59" s="7">
-        <v>43314</v>
+        <v>43317</v>
       </c>
       <c r="F59" s="7">
         <v>43372</v>
@@ -3275,7 +3275,7 @@
         <v>43973</v>
       </c>
       <c r="E61" s="7">
-        <v>44037</v>
+        <v>44039</v>
       </c>
       <c r="F61" s="7">
         <v>44092.5</v>
@@ -3292,25 +3292,25 @@
         <v>2021</v>
       </c>
       <c r="B62" s="11">
-        <v>44279</v>
+        <v>44276</v>
       </c>
       <c r="C62" s="11">
         <v>44350</v>
       </c>
       <c r="D62" s="11">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E62" s="11">
-        <v>44414.25</v>
+        <v>44416</v>
       </c>
       <c r="F62" s="11">
         <v>44473</v>
       </c>
       <c r="G62" s="11">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="H62" s="11">
-        <v>44486</v>
+        <v>44479</v>
       </c>
       <c r="I62" t="s">
         <v>9</v>
@@ -3321,25 +3321,25 @@
         <v>2022</v>
       </c>
       <c r="B63" s="11">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="C63" s="11">
-        <v>44702</v>
+        <v>44706</v>
       </c>
       <c r="D63" s="11">
-        <v>44702</v>
+        <v>44708</v>
       </c>
       <c r="E63" s="11">
-        <v>44769</v>
+        <v>44772</v>
       </c>
       <c r="F63" s="11">
         <v>44818</v>
       </c>
       <c r="G63" s="11">
-        <v>44805</v>
+        <v>44810</v>
       </c>
       <c r="H63" s="11">
-        <v>44832</v>
+        <v>44828</v>
       </c>
       <c r="I63" t="s">
         <v>9</v>
